--- a/medicine/Psychotrope/Ravageurs_du_tabac/Ravageurs_du_tabac.xlsx
+++ b/medicine/Psychotrope/Ravageurs_du_tabac/Ravageurs_du_tabac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste non exhaustive de ravageurs du tabac (plante cultivée, Nicotiana tabacum, et feuilles séchées).
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,61 +553,238 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Coléoptères
-Lasioderma serricorne (vrillette du tabac)
+          <t>Coléoptères</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Lasioderma serricorne (vrillette du tabac)
 Tenebroides mauritanicus (cadelle)
 Tribolium castaneum (tribolium rouge de la farine)
 Attagenus unicolor (attagène des tapis)
 Agriotes spp. (taupins)
-Popillia japonica (scarabée japonais )
-Hémiptères
-Bemisia tabaci (aleurode du tabac ou mouche blanche)
+Popillia japonica (scarabée japonais )</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ravageurs_du_tabac</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ravageurs_du_tabac</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Hémiptères</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bemisia tabaci (aleurode du tabac ou mouche blanche)
 Nezara viridula (punaise verte puante)
-Myzus persicae (puceron vert du pêcher)
-Lépidoptères
-Ephestia elutella (pyrale du tabac ou teigne du cacao)
+Myzus persicae (puceron vert du pêcher)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ravageurs_du_tabac</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ravageurs_du_tabac</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Lépidoptères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ephestia elutella (pyrale du tabac ou teigne du cacao)
 Korscheltellus lupulinus (petite hépiale du houblon)
 Manduca sexta (sphinx du tabac)
 Helicoverpa assulta (noctuelle orientale du tabac)
 Helicoverpa zea (noctuelle de la tomate)
 Heliothis virescens (noctuelle des bourgeons du tabac ou noctuelle verdoyante)
 Scrobipalpa aptatella (foreur du tabac)
-Spodoptera litura (noctuelle rayée ou ver du tabac)
-Orthoptères
-Ruspolia nitidula (conocéphale gracieux, petite sauterelle)
-Tettigonia viridissima (grande sauterelle verte)
-Psocoptères
-Liposcelis bostrychophilus
-Thysanoptères
-Thrips tabaci  (thrips du tabac et de l'oignon)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ravageurs_du_tabac</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ravageurs_du_tabac</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Spodoptera litura (noctuelle rayée ou ver du tabac)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ravageurs_du_tabac</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ravageurs_du_tabac</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Orthoptères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ruspolia nitidula (conocéphale gracieux, petite sauterelle)
+Tettigonia viridissima (grande sauterelle verte)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ravageurs_du_tabac</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ravageurs_du_tabac</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Psocoptères</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Liposcelis bostrychophilus</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ravageurs_du_tabac</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ravageurs_du_tabac</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Thysanoptères</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Thrips tabaci  (thrips du tabac et de l'oignon)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ravageurs_du_tabac</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ravageurs_du_tabac</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Nématodes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
